--- a/outputD3_xun.xlsx
+++ b/outputD3_xun.xlsx
@@ -1,61 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\the-seasonal-flood-periods\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,44 +53,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -395,1223 +360,1241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B2" t="s"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>9.8856149765993351</v>
+      <c r="B3" t="n">
+        <v>9.885614976599335</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>9.748553538849384</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>9.6061929112221414</v>
+      <c r="B5" t="n">
+        <v>9.606192911222141</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>9.5150824037056516</v>
+      <c r="B6" t="n">
+        <v>9.515082403705652</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>9.457783351822334</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>9.3440744503806314</v>
+      <c r="B8" t="n">
+        <v>9.344074450380631</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>9.2400772875334649</v>
+      <c r="B9" t="n">
+        <v>9.240077287533465</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>9.192864906133309</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>9.1434237036362873</v>
+      <c r="B11" t="n">
+        <v>9.143423703636287</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>9.8842516023254099</v>
+      <c r="B12" t="n">
+        <v>9.88425160232541</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>9.7881746936531613</v>
+      <c r="B13" t="n">
+        <v>9.788174693653161</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>9.6989387780854024</v>
+      <c r="B14" t="n">
+        <v>9.698938778085402</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>9.4287389653519877</v>
+      <c r="B15" t="n">
+        <v>9.428738965351988</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>9.2460714364667727</v>
+      <c r="B16" t="n">
+        <v>9.246071436466773</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>9.1865115080232123</v>
+      <c r="B17" t="n">
+        <v>9.186511508023212</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>8.6103907327170521</v>
+      <c r="B18" t="n">
+        <v>8.610390732717052</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>8.2581670915823544</v>
+      <c r="B19" t="n">
+        <v>8.258167091582354</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>6.4958588584928902</v>
+      <c r="B20" t="n">
+        <v>6.495858858492895</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>6.8283398925504102</v>
+      <c r="B21" t="n">
+        <v>6.82833989255041</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>7.1693457541627073</v>
+      <c r="B22" t="n">
+        <v>7.169345754162707</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>7.1967158734101311</v>
+      <c r="B23" t="n">
+        <v>7.196715873410131</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>7.4130344080771966</v>
+      <c r="B24" t="n">
+        <v>7.413034408077197</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>7.4955242135892322</v>
+      <c r="B25" t="n">
+        <v>7.495524213589232</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>7.799792097201431</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>7.3976643494384531</v>
+      <c r="B27" t="n">
+        <v>7.397664349438453</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>7.440550406237274</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>7.4047439047253301</v>
+      <c r="B29" t="n">
+        <v>7.40474390472533</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>7.7221528147111824</v>
+      <c r="B30" t="n">
+        <v>7.722152814711182</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>8.0612744435677843</v>
+      <c r="B31" t="n">
+        <v>8.061274443567784</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>8.2768155077079495</v>
+      <c r="B32" t="n">
+        <v>8.276815507707949</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>8.5886717439547198</v>
+      <c r="B33" t="n">
+        <v>8.58867174395472</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>8.8480616209668774</v>
+      <c r="B34" t="n">
+        <v>8.848061620966877</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>9.1492569494414084</v>
+      <c r="B35" t="n">
+        <v>9.149256949441408</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>9.4449476461062645</v>
+      <c r="B36" t="n">
+        <v>9.444947646106264</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>9.7407533688146941</v>
+      <c r="B37" t="n">
+        <v>9.740753368814694</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B2" t="s"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>8.1481150653204804</v>
+      <c r="B3" t="n">
+        <v>8.14811506532048</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>8.0774219595666104</v>
+      <c r="B4" t="n">
+        <v>8.07742195956661</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>7.9623709656151576</v>
+      <c r="B5" t="n">
+        <v>7.962370965615158</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>7.8431142455771363</v>
+      <c r="B6" t="n">
+        <v>7.843114245577136</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>7.7347069134816211</v>
+      <c r="B7" t="n">
+        <v>7.734706913481621</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>7.614054157510739</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>7.6506442786223374</v>
+      <c r="B9" t="n">
+        <v>7.650644278622337</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>7.5603329369807719</v>
+      <c r="B10" t="n">
+        <v>7.560332936980772</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>7.4438531904863297</v>
+      <c r="B11" t="n">
+        <v>7.44385319048633</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>8.1876149735979471</v>
+      <c r="B12" t="n">
+        <v>8.187614973597947</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>8.1889741062445225</v>
+      <c r="B13" t="n">
+        <v>8.188974106244522</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>8.1499753660044085</v>
+      <c r="B14" t="n">
+        <v>8.149975366004409</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>8.1149031457016001</v>
+      <c r="B15" t="n">
+        <v>8.1149031457016</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>8.0826255574335466</v>
+      <c r="B16" t="n">
+        <v>8.082625557433547</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>8.0597224456063099</v>
+      <c r="B17" t="n">
+        <v>8.05972244560631</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>7.8628143955966543</v>
+      <c r="B18" t="n">
+        <v>7.862814395596654</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>7.8017651332874607</v>
+      <c r="B19" t="n">
+        <v>7.801765133287461</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>6.3280752814141854</v>
+      <c r="B20" t="n">
+        <v>6.328075281414185</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>6.5362514001640628</v>
+      <c r="B21" t="n">
+        <v>6.536251400164063</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>6.7391552269549519</v>
+      <c r="B22" t="n">
+        <v>6.739155226954952</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>6.8145521557092197</v>
+      <c r="B23" t="n">
+        <v>6.81455215570922</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>6.9445702181446194</v>
+      <c r="B24" t="n">
+        <v>6.944570218144619</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>6.99890791769469</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>7.1811745089999697</v>
+      <c r="B26" t="n">
+        <v>7.18117450899997</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>6.5246436094804112</v>
+      <c r="B27" t="n">
+        <v>6.524643609480411</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>6.5610648217609198</v>
+      <c r="B28" t="n">
+        <v>6.56106482176092</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>6.5999780650210402</v>
+      <c r="B29" t="n">
+        <v>6.59997806502104</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>6.8205185224017129</v>
+      <c r="B30" t="n">
+        <v>6.820518522401713</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>7.0382791266907736</v>
+      <c r="B31" t="n">
+        <v>7.038279126690774</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>7.2357599551756469</v>
+      <c r="B32" t="n">
+        <v>7.235759955175647</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>7.3899527573416268</v>
+      <c r="B33" t="n">
+        <v>7.389952757341627</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>7.4888037722733243</v>
+      <c r="B34" t="n">
+        <v>7.488803772273324</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>7.6967736952621131</v>
+      <c r="B35" t="n">
+        <v>7.696773695262113</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>7.8976065126461421</v>
+      <c r="B36" t="n">
+        <v>7.897606512646142</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>8.088711322225473</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B2" t="s"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>9.3876737514614543</v>
+      <c r="B3" t="n">
+        <v>9.387673751461454</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>9.3168860020016471</v>
+      <c r="B4" t="n">
+        <v>9.316886002001647</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>9.1996292096196797</v>
+      <c r="B5" t="n">
+        <v>9.19962920961968</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>9.0825643652216588</v>
+      <c r="B6" t="n">
+        <v>9.082564365221659</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>8.982477749651876</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>8.8628081205641145</v>
+      <c r="B8" t="n">
+        <v>8.862808120564114</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>8.7370588080183769</v>
+      <c r="B9" t="n">
+        <v>8.737058808018377</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>8.6444191367369072</v>
+      <c r="B10" t="n">
+        <v>8.644419136736907</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>8.5630518433501734</v>
+      <c r="B11" t="n">
+        <v>8.563051843350173</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>9.2816333890596336</v>
+      <c r="B12" t="n">
+        <v>9.281633389059634</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>9.3148059295596912</v>
+      <c r="B13" t="n">
+        <v>9.314805929559691</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>9.2474777066467997</v>
+      <c r="B14" t="n">
+        <v>9.2474777066468</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>9.2370641358461612</v>
+      <c r="B15" t="n">
+        <v>9.237064135846161</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>9.1561474445648194</v>
+      <c r="B16" t="n">
+        <v>9.156147444564819</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>9.1332714131622161</v>
+      <c r="B17" t="n">
+        <v>9.133271413162216</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>8.6906267807427113</v>
+      <c r="B18" t="n">
+        <v>8.690626780742711</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>8.4664158019324418</v>
+      <c r="B19" t="n">
+        <v>8.466415801932442</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <v>7.0950969089970011</v>
+      <c r="B20" t="n">
+        <v>7.095096908997001</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>7.3560871002235944</v>
+      <c r="B21" t="n">
+        <v>7.356087100223594</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>7.6227021064571794</v>
+      <c r="B22" t="n">
+        <v>7.622702106457179</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>7.6582550483088214</v>
+      <c r="B23" t="n">
+        <v>7.658255048308821</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>7.80892649272465</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>7.8219955642835801</v>
+      <c r="B25" t="n">
+        <v>7.82199556428358</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>8.0646980310274312</v>
+      <c r="B26" t="n">
+        <v>8.064698031027431</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>7.2866077586431981</v>
+      <c r="B27" t="n">
+        <v>7.286607758643198</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>7.2799555122733617</v>
+      <c r="B28" t="n">
+        <v>7.279955512273362</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>7.2248582150239073</v>
+      <c r="B29" t="n">
+        <v>7.224858215023907</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>7.5110198710371714</v>
+      <c r="B30" t="n">
+        <v>7.511019871037171</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>7.808169103734512</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>8.0391289969381461</v>
+      <c r="B32" t="n">
+        <v>8.039128996938146</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>8.3008136139738973</v>
+      <c r="B33" t="n">
+        <v>8.300813613973897</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>8.4895773825933869</v>
+      <c r="B34" t="n">
+        <v>8.489577382593387</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>8.7610142988343647</v>
+      <c r="B35" t="n">
+        <v>8.761014298834365</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>9.0232617448988641</v>
+      <c r="B36" t="n">
+        <v>9.023261744898864</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>9.2778310866147073</v>
+      <c r="B37" t="n">
+        <v>9.277831086614707</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B2" t="s"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>9.0486778377229218</v>
+      <c r="B3" t="n">
+        <v>9.048677837722922</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>9.168290680309207</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>9.004250315851003</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>8.8745648923240772</v>
+      <c r="B6" t="n">
+        <v>8.874564892324077</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>8.7033627029191774</v>
+      <c r="B7" t="n">
+        <v>8.703362702919177</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>8.4938711281511345</v>
+      <c r="B8" t="n">
+        <v>8.493871128151135</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>9.0454437054121399</v>
+      <c r="B9" t="n">
+        <v>9.04544370541214</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>8.942461398290499</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>8.847459166015426</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>9.0067206683417638</v>
+      <c r="B12" t="n">
+        <v>9.006720668341764</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>9.1234031065841243</v>
+      <c r="B13" t="n">
+        <v>9.123403106584124</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>9.0773833648706592</v>
+      <c r="B14" t="n">
+        <v>9.077383364870659</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>9.2189769480628136</v>
+      <c r="B15" t="n">
+        <v>9.218976948062814</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>9.17024981559954</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>9.1163285077900902</v>
+      <c r="B17" t="n">
+        <v>9.11632850779009</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>9.170204996695194</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>9.125090228851958</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>9.2697949016935368</v>
+      <c r="B20" t="n">
+        <v>9.269794901693537</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>9.2797123673084911</v>
+      <c r="B21" t="n">
+        <v>9.279712367308491</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>9.2872192559017694</v>
+      <c r="B22" t="n">
+        <v>9.287219255901769</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>9.264542013167631</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>9.2348913769127883</v>
+      <c r="B24" t="n">
+        <v>9.234891376912788</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>9.1991484430362238</v>
+      <c r="B25" t="n">
+        <v>9.199148443036224</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>9.2502703184941328</v>
+      <c r="B26" t="n">
+        <v>9.250270318494133</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>9.0793651292993243</v>
+      <c r="B27" t="n">
+        <v>9.079365129299324</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>9.0277046478587231</v>
+      <c r="B28" t="n">
+        <v>9.027704647858723</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>8.9885304184589447</v>
+      <c r="B29" t="n">
+        <v>8.988530418458945</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>9.094187273774839</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>9.2121662704648006</v>
+      <c r="B31" t="n">
+        <v>9.212166270464801</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>9.2701176636062605</v>
+      <c r="B32" t="n">
+        <v>9.270117663606261</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>9.0785005429446972</v>
+      <c r="B33" t="n">
+        <v>9.078500542944697</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>8.5951415918956453</v>
+      <c r="B34" t="n">
+        <v>8.595141591895645</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>8.8482615342877793</v>
+      <c r="B35" t="n">
+        <v>8.848261534287779</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>9.0565011568196141</v>
+      <c r="B36" t="n">
+        <v>9.056501156819614</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>9.1666983686281789</v>
+      <c r="B37" t="n">
+        <v>9.166698368628179</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/outputD3_xun.xlsx
+++ b/outputD3_xun.xlsx
@@ -389,7 +389,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.885614976599335</v>
+        <v>9.868411780346994</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -397,7 +397,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.748553538849384</v>
+        <v>9.73462837669291</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -405,7 +405,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.606192911222141</v>
+        <v>9.608175544903661</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -413,7 +413,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.515082403705652</v>
+        <v>9.553541404579102</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -421,7 +421,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.457783351822334</v>
+        <v>9.425079770173236</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -429,7 +429,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.344074450380631</v>
+        <v>9.333265613052861</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -437,7 +437,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.240077287533465</v>
+        <v>9.31707250865154</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -445,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.192864906133309</v>
+        <v>9.192811800721463</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -453,7 +453,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.143423703636287</v>
+        <v>9.145674915103646</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -461,7 +461,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.88425160232541</v>
+        <v>9.18704728336003</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -469,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.788174693653161</v>
+        <v>9.802271979418705</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -477,7 +477,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.698938778085402</v>
+        <v>9.691481158160698</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -485,7 +485,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.428738965351988</v>
+        <v>9.619234873270091</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -493,7 +493,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.246071436466773</v>
+        <v>9.363054026415282</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -501,7 +501,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.186511508023212</v>
+        <v>9.189269073854916</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -509,7 +509,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.610390732717052</v>
+        <v>8.477637268505378</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -517,7 +517,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8.258167091582354</v>
+        <v>7.326047566459048</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -525,7 +525,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.495858858492895</v>
+        <v>6.520267964341594</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -533,7 +533,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.82833989255041</v>
+        <v>6.519530591664822</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -541,7 +541,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.169345754162707</v>
+        <v>6.837673889047828</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -549,7 +549,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.196715873410131</v>
+        <v>7.171834598979332</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -557,7 +557,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.413034408077197</v>
+        <v>7.499360475809272</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -565,7 +565,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.495524213589232</v>
+        <v>7.698852556565493</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -573,7 +573,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.799792097201431</v>
+        <v>7.798775184204006</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -581,7 +581,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.397664349438453</v>
+        <v>7.950874371043436</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -589,7 +589,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.440550406237274</v>
+        <v>7.488154099711291</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -597,7 +597,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.40474390472533</v>
+        <v>7.411544568360918</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -605,7 +605,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.722152814711182</v>
+        <v>7.647133864619568</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>8.061274443567784</v>
+        <v>7.937950709679477</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -621,7 +621,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8.276815507707949</v>
+        <v>8.26646603277287</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -629,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>8.58867174395472</v>
+        <v>8.590259271819566</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -637,7 +637,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8.848061620966877</v>
+        <v>8.889047099533416</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -645,7 +645,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.149256949441408</v>
+        <v>9.137535725044019</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -653,7 +653,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.444947646106264</v>
+        <v>9.435377265721309</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -661,7 +661,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.740753368814694</v>
+        <v>9.714267046268704</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.14811506532048</v>
+        <v>8.171339004564125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -707,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.07742195956661</v>
+        <v>8.049055781879552</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.962370965615158</v>
+        <v>7.982871239425934</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -723,7 +723,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.843114245577136</v>
+        <v>7.879800150746949</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -731,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.734706913481621</v>
+        <v>7.756426714146643</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -739,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.614054157510739</v>
+        <v>7.635377837953064</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -747,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.650644278622337</v>
+        <v>7.532888925031221</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -755,7 +755,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.560332936980772</v>
+        <v>7.57574333828559</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.44385319048633</v>
+        <v>7.491907467114062</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -771,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.187614973597947</v>
+        <v>7.461565856180636</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -779,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.188974106244522</v>
+        <v>8.175868955570683</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -787,7 +787,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.149975366004409</v>
+        <v>8.181778772284266</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -795,7 +795,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.1149031457016</v>
+        <v>8.140679480505328</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -803,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.082625557433547</v>
+        <v>8.13294132656225</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -811,7 +811,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8.05972244560631</v>
+        <v>8.095338983361597</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -819,7 +819,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.862814395596654</v>
+        <v>7.459281782620661</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -827,7 +827,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.801765133287461</v>
+        <v>6.495439869520776</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -835,7 +835,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.328075281414185</v>
+        <v>6.365106830327364</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -843,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.536251400164063</v>
+        <v>6.451283932361483</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -851,7 +851,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.739155226954952</v>
+        <v>6.650826344741989</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -859,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.81455215570922</v>
+        <v>6.846997788011806</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.944570218144619</v>
+        <v>7.036483885906547</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -875,7 +875,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.99890791769469</v>
+        <v>7.158314399321048</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -883,7 +883,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.18117450899997</v>
+        <v>7.210831405897885</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -891,7 +891,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.524643609480411</v>
+        <v>7.324684015600133</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -899,7 +899,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.56106482176092</v>
+        <v>6.651034216396748</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -907,7 +907,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.59997806502104</v>
+        <v>6.629702044158819</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -915,7 +915,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.820518522401713</v>
+        <v>6.840603505469025</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -923,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.038279126690774</v>
+        <v>7.051980274645911</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -931,7 +931,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.235759955175647</v>
+        <v>7.261586340549902</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -939,7 +939,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.389952757341627</v>
+        <v>7.463005929638819</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -947,7 +947,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.488803772273324</v>
+        <v>7.615582089241284</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -955,7 +955,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.696773695262113</v>
+        <v>7.719939272153804</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -963,7 +963,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.897606512646142</v>
+        <v>7.907968424148602</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -971,7 +971,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>8.088711322225473</v>
+        <v>8.100515460278432</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.387673751461454</v>
+        <v>9.400319759803757</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1017,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.316886002001647</v>
+        <v>9.264670428010506</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1025,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.19962920961968</v>
+        <v>9.211224005244489</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.082564365221659</v>
+        <v>9.119329851433855</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.982477749651876</v>
+        <v>8.991942374149959</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.862808120564114</v>
+        <v>8.874556873287064</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.737058808018377</v>
+        <v>8.803596655424053</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.644419136736907</v>
+        <v>8.687512071509218</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.563051843350173</v>
+        <v>8.604426930229781</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1081,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.281633389059634</v>
+        <v>8.615449794595779</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.314805929559691</v>
+        <v>9.240464357163297</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1097,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.2474777066468</v>
+        <v>9.269477910625463</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1105,7 +1105,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.237064135846161</v>
+        <v>9.199640268561101</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1113,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.156147444564819</v>
+        <v>9.241434854117973</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1121,7 +1121,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.133271413162216</v>
+        <v>9.154634307259331</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1129,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.690626780742711</v>
+        <v>8.616153977647006</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1137,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8.466415801932442</v>
+        <v>7.604572434029051</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1145,7 +1145,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.095096908997001</v>
+        <v>7.118816927031727</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1153,7 +1153,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.356087100223594</v>
+        <v>7.16608289690089</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1161,7 +1161,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.622702106457179</v>
+        <v>7.41786642674025</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1169,7 +1169,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.658255048308821</v>
+        <v>7.678760842500275</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1177,7 +1177,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.80892649272465</v>
+        <v>7.931058355857497</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1185,7 +1185,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.82199556428358</v>
+        <v>8.070631603491771</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1193,7 +1193,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8.064698031027431</v>
+        <v>8.083290087639728</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1201,7 +1201,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.286607758643198</v>
+        <v>8.206277703556779</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1209,7 +1209,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.279955512273362</v>
+        <v>7.382400574787668</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1217,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.224858215023907</v>
+        <v>7.243371424080757</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1225,7 +1225,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.511019871037171</v>
+        <v>7.495522085929858</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1233,7 +1233,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.808169103734512</v>
+        <v>7.766896219106776</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1241,7 +1241,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8.039128996938146</v>
+        <v>8.054956376335996</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1249,7 +1249,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>8.300813613973897</v>
+        <v>8.335297304570545</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1257,7 +1257,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8.489577382593387</v>
+        <v>8.587627917676571</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1265,7 +1265,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8.761014298834365</v>
+        <v>8.774763266859614</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1273,7 +1273,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.023261744898864</v>
+        <v>9.030254820070311</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1281,7 +1281,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.277831086614707</v>
+        <v>9.278791034071151</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.048677837722922</v>
+        <v>9.273733854310693</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.168290680309207</v>
+        <v>9.005159786507782</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.004250315851003</v>
+        <v>9.218506736098734</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.874564892324077</v>
+        <v>9.026531609838877</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.703362702919177</v>
+        <v>8.900296237990796</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8.493871128151135</v>
+        <v>8.723565140353481</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.04544370541214</v>
+        <v>8.489153349685134</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.942461398290499</v>
+        <v>9.121742645135134</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.847459166015426</v>
+        <v>9.00749045066943</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.006720668341764</v>
+        <v>8.97917106745844</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.123403106584124</v>
+        <v>9.152683522223114</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.077383364870659</v>
+        <v>9.285212286177142</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.218976948062814</v>
+        <v>9.224069542796363</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.17024981559954</v>
+        <v>9.394890843165209</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.11632850779009</v>
+        <v>9.345308482158424</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.170204996695194</v>
+        <v>9.531445548244191</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.125090228851958</v>
+        <v>9.50917258380926</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9.269794901693537</v>
+        <v>9.496535829118249</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.279712367308491</v>
+        <v>9.476478529882154</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.287219255901769</v>
+        <v>9.480717860081565</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.264542013167631</v>
+        <v>9.484899497067474</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.234891376912788</v>
+        <v>9.469823242401022</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9.199148443036224</v>
+        <v>9.461741104350395</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.250270318494133</v>
+        <v>9.474399811811784</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.079365129299324</v>
+        <v>9.436097548813272</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.027704647858723</v>
+        <v>9.274400079631116</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>8.988530418458945</v>
+        <v>9.202772993455911</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.094187273774839</v>
+        <v>9.32937658883295</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.212166270464801</v>
+        <v>9.411351618766423</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.270117663606261</v>
+        <v>9.496448176992871</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.078500542944697</v>
+        <v>9.532881075799363</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>8.595141591895645</v>
+        <v>9.441044323197856</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>8.848261534287779</v>
+        <v>9.070189139138721</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.056501156819614</v>
+        <v>9.035501330206419</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.166698368628179</v>
+        <v>9.26601349730521</v>
       </c>
     </row>
   </sheetData>
